--- a/DATA_DOWNLOAD/TABLES/Sum_Stats.xlsx
+++ b/DATA_DOWNLOAD/TABLES/Sum_Stats.xlsx
@@ -425,7 +425,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>11.472</v>
+        <v>11.2669322709163</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>17.0122950819672</v>
+        <v>16.9295081967213</v>
       </c>
       <c r="D3" t="n">
         <v>1.43157894736842</v>
@@ -477,7 +477,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>34.8767730496454</v>
+        <v>34.8201948627104</v>
       </c>
       <c r="D4" t="n">
         <v>2.81829639140424</v>
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>32.2417027417027</v>
+        <v>32.2272727272727</v>
       </c>
       <c r="D5" t="n">
         <v>16.2960168161137</v>
@@ -555,7 +555,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>21.4428857715431</v>
+        <v>21.399</v>
       </c>
       <c r="D7" t="n">
         <v>0.122211608419485</v>
@@ -633,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>7.44308943089431</v>
+        <v>7.42276422764228</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>11.78515625</v>
+        <v>11.7734375</v>
       </c>
       <c r="D11" t="n">
         <v>0.0404676258992806</v>
@@ -737,7 +737,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>9.00462962962963</v>
+        <v>8.96759259259259</v>
       </c>
       <c r="D14" t="n">
         <v>0.0181818181818182</v>
@@ -763,7 +763,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>11.5190839694656</v>
+        <v>11.4809160305344</v>
       </c>
       <c r="D15" t="n">
         <v>0.0318570536828964</v>
@@ -789,7 +789,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>17.1820809248555</v>
+        <v>17.0461095100865</v>
       </c>
       <c r="D16" t="n">
         <v>0.198256944444444</v>
@@ -815,7 +815,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>25.1315789473684</v>
+        <v>24.8848684210526</v>
       </c>
       <c r="D17" t="n">
         <v>5.94461013645224</v>

--- a/DATA_DOWNLOAD/TABLES/Sum_Stats.xlsx
+++ b/DATA_DOWNLOAD/TABLES/Sum_Stats.xlsx
@@ -431,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.800974512743628</v>
+        <v>0.823268921095008</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0.0781954887218045</v>
       </c>
       <c r="E3" t="n">
-        <v>4.51161349527831</v>
+        <v>4.51781012841525</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
@@ -483,7 +483,7 @@
         <v>0.31001824570888</v>
       </c>
       <c r="E4" t="n">
-        <v>16.4680163399757</v>
+        <v>16.4758181108709</v>
       </c>
       <c r="F4" t="n">
         <v>13</v>
@@ -509,7 +509,7 @@
         <v>14.5333049517069</v>
       </c>
       <c r="E5" t="n">
-        <v>24.8273397494209</v>
+        <v>24.85192000257</v>
       </c>
       <c r="F5" t="n">
         <v>16</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.343375238095238</v>
+        <v>0.346389942857143</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>0.122211608419485</v>
       </c>
       <c r="E7" t="n">
-        <v>5.57573692434211</v>
+        <v>5.5916040259553</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
         <v>45</v>
@@ -587,7 +587,7 @@
         <v>0.660720219039578</v>
       </c>
       <c r="E8" t="n">
-        <v>23.1205658768435</v>
+        <v>23.1284109339484</v>
       </c>
       <c r="F8" t="n">
         <v>6</v>
@@ -613,7 +613,7 @@
         <v>14.716552843672</v>
       </c>
       <c r="E9" t="n">
-        <v>47.9020506663077</v>
+        <v>47.905288968098</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
@@ -743,7 +743,7 @@
         <v>0.0181818181818182</v>
       </c>
       <c r="E14" t="n">
-        <v>0.760306737706604</v>
+        <v>0.567888133728462</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>0.0318570536828964</v>
       </c>
       <c r="E15" t="n">
-        <v>0.931535331406962</v>
+        <v>1.20445965009235</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
         <v>0.198256944444444</v>
       </c>
       <c r="E16" t="n">
-        <v>3.97956467710596</v>
+        <v>4.69300321111288</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
@@ -821,7 +821,7 @@
         <v>5.94461013645224</v>
       </c>
       <c r="E17" t="n">
-        <v>36.2325605980518</v>
+        <v>36.4188162835123</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>

--- a/DATA_DOWNLOAD/TABLES/Sum_Stats.xlsx
+++ b/DATA_DOWNLOAD/TABLES/Sum_Stats.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">HOLC Grade</t>
   </si>
@@ -23,10 +23,16 @@
     <t xml:space="preserve">Building Age Midpoint</t>
   </si>
   <si>
+    <t xml:space="preserve">Family Income Midpoint</t>
+  </si>
+  <si>
     <t xml:space="preserve">Black (%)</t>
   </si>
   <si>
     <t xml:space="preserve">Foreign Born (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Family Income</t>
   </si>
   <si>
     <t xml:space="preserve">Missing For. Born</t>
@@ -65,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -384,10 +390,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -416,421 +422,523 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2669322709163</v>
+        <v>11.2519305019305</v>
       </c>
       <c r="D2" t="n">
+        <v>9381.2101910828</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.823268921095008</v>
-      </c>
       <c r="F2" t="n">
+        <v>0.860738636363636</v>
+      </c>
+      <c r="G2" t="n">
+        <v>107</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>49</v>
       </c>
-      <c r="H2" t="n">
-        <v>276</v>
+      <c r="J2" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>16.9295081967213</v>
+        <v>15.2885532591415</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0781954887218045</v>
+        <v>4112.07349081365</v>
       </c>
       <c r="E3" t="n">
-        <v>4.51781012841525</v>
+        <v>0.0797546012269939</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>3.33312991452991</v>
       </c>
       <c r="G3" t="n">
+        <v>271</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
         <v>49</v>
       </c>
-      <c r="H3" t="n">
-        <v>665</v>
+      <c r="J3" t="n">
+        <v>652</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="n">
-        <v>34.8201948627104</v>
+        <v>22.5581168831169</v>
       </c>
       <c r="D4" t="n">
-        <v>0.31001824570888</v>
+        <v>2148.85222381636</v>
       </c>
       <c r="E4" t="n">
-        <v>16.4758181108709</v>
+        <v>0.30680172938253</v>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>14.9763606531939</v>
       </c>
       <c r="G4" t="n">
+        <v>492</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I4" t="n">
         <v>49</v>
       </c>
-      <c r="H4" t="n">
-        <v>1208</v>
+      <c r="J4" t="n">
+        <v>1189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>32.2272727272727</v>
+        <v>32.1375530410184</v>
       </c>
       <c r="D5" t="n">
-        <v>14.5333049517069</v>
+        <v>1285.99128540305</v>
       </c>
       <c r="E5" t="n">
-        <v>24.85192000257</v>
+        <v>14.0603051479801</v>
       </c>
       <c r="F5" t="n">
+        <v>27.6657779327445</v>
+      </c>
+      <c r="G5" t="n">
+        <v>274</v>
+      </c>
+      <c r="H5" t="n">
         <v>16</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>49</v>
       </c>
-      <c r="H5" t="n">
-        <v>767</v>
+      <c r="J5" t="n">
+        <v>733</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>15.8834951456311</v>
+        <v>14.183859223301</v>
       </c>
       <c r="D6" t="n">
+        <v>14140.9217877095</v>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.346389942857143</v>
-      </c>
       <c r="F6" t="n">
+        <v>0.346694553920201</v>
+      </c>
+      <c r="G6" t="n">
+        <v>32</v>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>45</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>21.399</v>
+        <v>19.25725</v>
       </c>
       <c r="D7" t="n">
-        <v>0.122211608419485</v>
+        <v>4959.55497382199</v>
       </c>
       <c r="E7" t="n">
-        <v>5.5916040259553</v>
+        <v>0.122558980205352</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>5.59618917920937</v>
       </c>
       <c r="G7" t="n">
+        <v>133</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
         <v>45</v>
       </c>
-      <c r="H7" t="n">
-        <v>517</v>
+      <c r="J7" t="n">
+        <v>515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>32.2598908594816</v>
+        <v>25.6649045020464</v>
       </c>
       <c r="D8" t="n">
-        <v>0.660720219039578</v>
+        <v>2319.40104166667</v>
       </c>
       <c r="E8" t="n">
-        <v>23.1284109339484</v>
+        <v>0.661946480539414</v>
       </c>
       <c r="F8" t="n">
+        <v>23.2172628271937</v>
+      </c>
+      <c r="G8" t="n">
+        <v>181</v>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>45</v>
       </c>
-      <c r="H8" t="n">
-        <v>759</v>
+      <c r="J8" t="n">
+        <v>757</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>37.4793281653747</v>
+        <v>36.4011627906977</v>
       </c>
       <c r="D9" t="n">
-        <v>14.716552843672</v>
+        <v>1297.90273556231</v>
       </c>
       <c r="E9" t="n">
-        <v>47.905288968098</v>
+        <v>14.6581846130677</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>45.6066482058709</v>
       </c>
       <c r="G9" t="n">
+        <v>64</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
         <v>45</v>
       </c>
-      <c r="H9" t="n">
-        <v>394</v>
+      <c r="J9" t="n">
+        <v>393</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
         <v>7.42276422764228</v>
       </c>
       <c r="D10" t="n">
+        <v>11134.0909090909</v>
+      </c>
+      <c r="E10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.232558139534884</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>19</v>
+      </c>
+      <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>25</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>11.7734375</v>
+        <v>11.7743190661479</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0404676258992806</v>
+        <v>4924.88532110092</v>
       </c>
       <c r="E11" t="n">
-        <v>0.560251798561151</v>
+        <v>0.04182156133829</v>
       </c>
       <c r="F11" t="n">
+        <v>0.578996282527881</v>
+      </c>
+      <c r="G11" t="n">
+        <v>51</v>
+      </c>
+      <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>25</v>
       </c>
-      <c r="H11" t="n">
-        <v>278</v>
+      <c r="J11" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
         <v>19.2291666666667</v>
       </c>
       <c r="D12" t="n">
-        <v>2.30784041798362</v>
+        <v>2537.1568627451</v>
       </c>
       <c r="E12" t="n">
-        <v>0.780668257756563</v>
+        <v>2.35850032959789</v>
       </c>
       <c r="F12" t="n">
+        <v>0.797804878048781</v>
+      </c>
+      <c r="G12" t="n">
+        <v>104</v>
+      </c>
+      <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>25</v>
       </c>
-      <c r="H12" t="n">
-        <v>419</v>
+      <c r="J12" t="n">
+        <v>410</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
         <v>24.7960992907801</v>
       </c>
       <c r="D13" t="n">
+        <v>1025.98214285714</v>
+      </c>
+      <c r="E13" t="n">
         <v>46.0416666666667</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.43589743589744</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>88</v>
+      </c>
+      <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>25</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>312</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>8.96759259259259</v>
+        <v>8.10648148148148</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0181818181818182</v>
+        <v>9590.625</v>
       </c>
       <c r="E14" t="n">
+        <v>0.018348623853211</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.567888133728462</v>
       </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
       <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>9</v>
       </c>
-      <c r="H14" t="n">
-        <v>110</v>
+      <c r="J14" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
         <v>11.4809160305344</v>
       </c>
       <c r="D15" t="n">
+        <v>5533.92996108949</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.0318570536828964</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.20445965009235</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>9</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>267</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" t="n">
         <v>17.0461095100865</v>
       </c>
       <c r="D16" t="n">
-        <v>0.198256944444444</v>
+        <v>2126.75438596491</v>
       </c>
       <c r="E16" t="n">
-        <v>4.69300321111288</v>
+        <v>0.203340455840456</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>4.81834841912013</v>
       </c>
       <c r="G16" t="n">
         <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>360</v>
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" t="n">
-        <v>24.8848684210526</v>
+        <v>24.3954248366013</v>
       </c>
       <c r="D17" t="n">
-        <v>5.94461013645224</v>
+        <v>1385.62091503268</v>
       </c>
       <c r="E17" t="n">
-        <v>36.4188162835123</v>
+        <v>6.1811554192229</v>
       </c>
       <c r="F17" t="n">
+        <v>25.280248272239</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>9</v>
       </c>
-      <c r="H17" t="n">
-        <v>171</v>
+      <c r="J17" t="n">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_DOWNLOAD/TABLES/Sum_Stats.xlsx
+++ b/DATA_DOWNLOAD/TABLES/Sum_Stats.xlsx
@@ -437,16 +437,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2519305019305</v>
+        <v>11.0010460251046</v>
       </c>
       <c r="D2" t="n">
-        <v>9381.2101910828</v>
+        <v>10043.0656934307</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.860738636363636</v>
+        <v>0.904472866026003</v>
       </c>
       <c r="G2" t="n">
         <v>107</v>
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3">
@@ -469,28 +469,28 @@
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>15.2885532591415</v>
+        <v>14.6908127208481</v>
       </c>
       <c r="D3" t="n">
-        <v>4112.07349081365</v>
+        <v>4219.81132075472</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0797546012269939</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="F3" t="n">
-        <v>3.33312991452991</v>
+        <v>3.18233096085409</v>
       </c>
       <c r="G3" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I3" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
-        <v>652</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4">
@@ -501,28 +501,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>22.5581168831169</v>
+        <v>22.135757717493</v>
       </c>
       <c r="D4" t="n">
-        <v>2148.85222381636</v>
+        <v>2151.3093289689</v>
       </c>
       <c r="E4" t="n">
-        <v>0.30680172938253</v>
+        <v>0.209345813617177</v>
       </c>
       <c r="F4" t="n">
-        <v>14.9763606531939</v>
+        <v>14.691084452975</v>
       </c>
       <c r="G4" t="n">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="I4" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J4" t="n">
-        <v>1189</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="5">
@@ -533,28 +533,28 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>32.1375530410184</v>
+        <v>31.2593312597201</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.99128540305</v>
+        <v>1287.77215189873</v>
       </c>
       <c r="E5" t="n">
-        <v>14.0603051479801</v>
+        <v>13.9098438652569</v>
       </c>
       <c r="F5" t="n">
-        <v>27.6657779327445</v>
+        <v>27.4744821731749</v>
       </c>
       <c r="G5" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I5" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J5" t="n">
-        <v>733</v>
+        <v>664</v>
       </c>
     </row>
     <row r="6">
@@ -565,28 +565,28 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>14.183859223301</v>
+        <v>14.1897123893805</v>
       </c>
       <c r="D6" t="n">
-        <v>14140.9217877095</v>
+        <v>13206.9095477387</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.346694553920201</v>
+        <v>0.336244541484716</v>
       </c>
       <c r="G6" t="n">
         <v>32</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J6" t="n">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7">
@@ -597,28 +597,28 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>19.25725</v>
+        <v>19.4140763765542</v>
       </c>
       <c r="D7" t="n">
-        <v>4959.55497382199</v>
+        <v>4762.58426966292</v>
       </c>
       <c r="E7" t="n">
-        <v>0.122558980205352</v>
+        <v>0.0388642252711808</v>
       </c>
       <c r="F7" t="n">
-        <v>5.59618917920937</v>
+        <v>5.40421792618629</v>
       </c>
       <c r="G7" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J7" t="n">
-        <v>515</v>
+        <v>584</v>
       </c>
     </row>
     <row r="8">
@@ -629,28 +629,28 @@
         <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>25.6649045020464</v>
+        <v>25.8899572649573</v>
       </c>
       <c r="D8" t="n">
-        <v>2319.40104166667</v>
+        <v>2294.97734138973</v>
       </c>
       <c r="E8" t="n">
-        <v>0.661946480539414</v>
+        <v>0.624134969207516</v>
       </c>
       <c r="F8" t="n">
-        <v>23.2172628271937</v>
+        <v>23.1418269230769</v>
       </c>
       <c r="G8" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J8" t="n">
-        <v>757</v>
+        <v>851</v>
       </c>
     </row>
     <row r="9">
@@ -661,28 +661,28 @@
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>36.4011627906977</v>
+        <v>37.0482261640798</v>
       </c>
       <c r="D9" t="n">
-        <v>1297.90273556231</v>
+        <v>1294.17302798982</v>
       </c>
       <c r="E9" t="n">
-        <v>14.6581846130677</v>
+        <v>14.9465836291888</v>
       </c>
       <c r="F9" t="n">
-        <v>45.6066482058709</v>
+        <v>45.6902654867257</v>
       </c>
       <c r="G9" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J9" t="n">
-        <v>393</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10">
@@ -763,7 +763,7 @@
         <v>2537.1568627451</v>
       </c>
       <c r="E12" t="n">
-        <v>2.35850032959789</v>
+        <v>2.24121951219512</v>
       </c>
       <c r="F12" t="n">
         <v>0.797804878048781</v>
@@ -830,13 +830,13 @@
         <v>0.018348623853211</v>
       </c>
       <c r="F14" t="n">
-        <v>0.567888133728462</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I14" t="n">
         <v>9</v>
@@ -859,16 +859,16 @@
         <v>5533.92996108949</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0318570536828964</v>
+        <v>0.0132334581772784</v>
       </c>
       <c r="F15" t="n">
-        <v>1.20445965009235</v>
+        <v>0.645502645502645</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="I15" t="n">
         <v>9</v>
@@ -891,16 +891,16 @@
         <v>2126.75438596491</v>
       </c>
       <c r="E16" t="n">
-        <v>0.203340455840456</v>
+        <v>0.187749287749288</v>
       </c>
       <c r="F16" t="n">
-        <v>4.81834841912013</v>
+        <v>5.74691358024691</v>
       </c>
       <c r="G16" t="n">
         <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="I16" t="n">
         <v>9</v>
@@ -923,16 +923,16 @@
         <v>1385.62091503268</v>
       </c>
       <c r="E17" t="n">
-        <v>6.1811554192229</v>
+        <v>6.19177793816913</v>
       </c>
       <c r="F17" t="n">
-        <v>25.280248272239</v>
+        <v>27.3851351351351</v>
       </c>
       <c r="G17" t="n">
         <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I17" t="n">
         <v>9</v>

--- a/DATA_DOWNLOAD/TABLES/Sum_Stats.xlsx
+++ b/DATA_DOWNLOAD/TABLES/Sum_Stats.xlsx
@@ -437,16 +437,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0010460251046</v>
+        <v>11.2519305019305</v>
       </c>
       <c r="D2" t="n">
-        <v>10043.0656934307</v>
+        <v>9381.2101910828</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.904472866026003</v>
+        <v>0.860738636363636</v>
       </c>
       <c r="G2" t="n">
         <v>107</v>
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J2" t="n">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3">
@@ -469,28 +469,28 @@
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>14.6908127208481</v>
+        <v>15.2885532591415</v>
       </c>
       <c r="D3" t="n">
-        <v>4219.81132075472</v>
+        <v>4112.07349081365</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0874233128834356</v>
       </c>
       <c r="F3" t="n">
-        <v>3.18233096085409</v>
+        <v>3.31141538461538</v>
       </c>
       <c r="G3" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H3" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J3" t="n">
-        <v>583</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4">
@@ -501,28 +501,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>22.135757717493</v>
+        <v>22.5581168831169</v>
       </c>
       <c r="D4" t="n">
-        <v>2151.3093289689</v>
+        <v>2148.85222381636</v>
       </c>
       <c r="E4" t="n">
-        <v>0.209345813617177</v>
+        <v>0.2868499796891</v>
       </c>
       <c r="F4" t="n">
-        <v>14.691084452975</v>
+        <v>14.9614749475108</v>
       </c>
       <c r="G4" t="n">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="H4" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J4" t="n">
-        <v>1095</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="5">
@@ -533,28 +533,28 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>31.2593312597201</v>
+        <v>32.1375530410184</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.77215189873</v>
+        <v>1285.99128540305</v>
       </c>
       <c r="E5" t="n">
-        <v>13.9098438652569</v>
+        <v>14.1675338453935</v>
       </c>
       <c r="F5" t="n">
-        <v>27.4744821731749</v>
+        <v>27.8125796114794</v>
       </c>
       <c r="G5" t="n">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H5" t="n">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I5" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J5" t="n">
-        <v>664</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6">
@@ -565,28 +565,28 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>14.1897123893805</v>
+        <v>14.183859223301</v>
       </c>
       <c r="D6" t="n">
-        <v>13206.9095477387</v>
+        <v>14140.9217877095</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.336244541484716</v>
+        <v>0.346694553920201</v>
       </c>
       <c r="G6" t="n">
         <v>32</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J6" t="n">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7">
@@ -597,28 +597,28 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>19.4140763765542</v>
+        <v>19.25725</v>
       </c>
       <c r="D7" t="n">
-        <v>4762.58426966292</v>
+        <v>4959.55497382199</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0388642252711808</v>
+        <v>0.0405339805825243</v>
       </c>
       <c r="F7" t="n">
-        <v>5.40421792618629</v>
+        <v>5.56043164021548</v>
       </c>
       <c r="G7" t="n">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H7" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J7" t="n">
-        <v>584</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8">
@@ -629,28 +629,28 @@
         <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>25.8899572649573</v>
+        <v>25.6649045020464</v>
       </c>
       <c r="D8" t="n">
-        <v>2294.97734138973</v>
+        <v>2319.40104166667</v>
       </c>
       <c r="E8" t="n">
-        <v>0.624134969207516</v>
+        <v>0.585194909621996</v>
       </c>
       <c r="F8" t="n">
-        <v>23.1418269230769</v>
+        <v>23.2136923109855</v>
       </c>
       <c r="G8" t="n">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H8" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J8" t="n">
-        <v>851</v>
+        <v>757</v>
       </c>
     </row>
     <row r="9">
@@ -661,28 +661,28 @@
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>37.0482261640798</v>
+        <v>36.4011627906977</v>
       </c>
       <c r="D9" t="n">
-        <v>1294.17302798982</v>
+        <v>1297.90273556231</v>
       </c>
       <c r="E9" t="n">
-        <v>14.9465836291888</v>
+        <v>14.7327797866167</v>
       </c>
       <c r="F9" t="n">
-        <v>45.6902654867257</v>
+        <v>45.7196431269731</v>
       </c>
       <c r="G9" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J9" t="n">
-        <v>462</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10">
@@ -830,13 +830,13 @@
         <v>0.018348623853211</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.567888133728462</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>9</v>
@@ -862,13 +862,13 @@
         <v>0.0132334581772784</v>
       </c>
       <c r="F15" t="n">
-        <v>0.645502645502645</v>
+        <v>1.20445965009235</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>9</v>
@@ -894,13 +894,13 @@
         <v>0.187749287749288</v>
       </c>
       <c r="F16" t="n">
-        <v>5.74691358024691</v>
+        <v>4.75284541709586</v>
       </c>
       <c r="G16" t="n">
         <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
         <v>9</v>
@@ -923,16 +923,16 @@
         <v>1385.62091503268</v>
       </c>
       <c r="E17" t="n">
-        <v>6.19177793816913</v>
+        <v>4.2484037050403</v>
       </c>
       <c r="F17" t="n">
-        <v>27.3851351351351</v>
+        <v>25.2876374348006</v>
       </c>
       <c r="G17" t="n">
         <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>9</v>

--- a/DATA_DOWNLOAD/TABLES/Sum_Stats.xlsx
+++ b/DATA_DOWNLOAD/TABLES/Sum_Stats.xlsx
@@ -446,13 +446,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.860738636363636</v>
+        <v>0.901726190476191</v>
       </c>
       <c r="G2" t="n">
         <v>107</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I2" t="n">
         <v>49</v>
@@ -475,16 +475,16 @@
         <v>4112.07349081365</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0874233128834356</v>
+        <v>0.0969387755102041</v>
       </c>
       <c r="F3" t="n">
-        <v>3.31141538461538</v>
+        <v>3.52855737704918</v>
       </c>
       <c r="G3" t="n">
         <v>271</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="I3" t="n">
         <v>49</v>
@@ -507,16 +507,16 @@
         <v>2148.85222381636</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2868499796891</v>
+        <v>0.320851012088749</v>
       </c>
       <c r="F4" t="n">
-        <v>14.9614749475108</v>
+        <v>15.9498800797898</v>
       </c>
       <c r="G4" t="n">
         <v>492</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="I4" t="n">
         <v>49</v>
@@ -539,16 +539,16 @@
         <v>1285.99128540305</v>
       </c>
       <c r="E5" t="n">
-        <v>14.1675338453935</v>
+        <v>14.9421615952136</v>
       </c>
       <c r="F5" t="n">
-        <v>27.8125796114794</v>
+        <v>29.4994372506372</v>
       </c>
       <c r="G5" t="n">
         <v>274</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I5" t="n">
         <v>49</v>
@@ -574,13 +574,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.346694553920201</v>
+        <v>0.364029281616211</v>
       </c>
       <c r="G6" t="n">
         <v>32</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
         <v>45</v>
@@ -603,16 +603,16 @@
         <v>4959.55497382199</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0405339805825243</v>
+        <v>0.0419176706827309</v>
       </c>
       <c r="F7" t="n">
-        <v>5.56043164021548</v>
+        <v>5.79873585336757</v>
       </c>
       <c r="G7" t="n">
         <v>133</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I7" t="n">
         <v>45</v>
@@ -635,16 +635,16 @@
         <v>2319.40104166667</v>
       </c>
       <c r="E8" t="n">
-        <v>0.585194909621996</v>
+        <v>0.611024202184622</v>
       </c>
       <c r="F8" t="n">
-        <v>23.2136923109855</v>
+        <v>24.2131707299307</v>
       </c>
       <c r="G8" t="n">
         <v>181</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="I8" t="n">
         <v>45</v>
@@ -667,16 +667,16 @@
         <v>1297.90273556231</v>
       </c>
       <c r="E9" t="n">
-        <v>14.7327797866167</v>
+        <v>15.6486012328118</v>
       </c>
       <c r="F9" t="n">
-        <v>45.7196431269731</v>
+        <v>47.4174548080809</v>
       </c>
       <c r="G9" t="n">
         <v>64</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
         <v>45</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.232558139534884</v>
+        <v>0.236220472440945</v>
       </c>
       <c r="G10" t="n">
         <v>19</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>25</v>
@@ -731,16 +731,16 @@
         <v>4924.88532110092</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04182156133829</v>
+        <v>0.0426136363636364</v>
       </c>
       <c r="F11" t="n">
-        <v>0.578996282527881</v>
+        <v>0.589962121212121</v>
       </c>
       <c r="G11" t="n">
         <v>51</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
         <v>25</v>
@@ -763,16 +763,16 @@
         <v>2537.1568627451</v>
       </c>
       <c r="E12" t="n">
-        <v>2.24121951219512</v>
+        <v>2.35012787723785</v>
       </c>
       <c r="F12" t="n">
-        <v>0.797804878048781</v>
+        <v>0.836572890025575</v>
       </c>
       <c r="G12" t="n">
         <v>104</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I12" t="n">
         <v>25</v>
@@ -795,16 +795,16 @@
         <v>1025.98214285714</v>
       </c>
       <c r="E13" t="n">
-        <v>46.0416666666667</v>
+        <v>48.3670033670034</v>
       </c>
       <c r="F13" t="n">
-        <v>1.43589743589744</v>
+        <v>1.52901023890785</v>
       </c>
       <c r="G13" t="n">
         <v>88</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I13" t="n">
         <v>25</v>
@@ -827,16 +827,16 @@
         <v>9590.625</v>
       </c>
       <c r="E14" t="n">
-        <v>0.018348623853211</v>
+        <v>0.0186915887850467</v>
       </c>
       <c r="F14" t="n">
-        <v>0.567888133728462</v>
+        <v>0.57314635718891</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>9</v>
@@ -859,16 +859,16 @@
         <v>5533.92996108949</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0132334581772784</v>
+        <v>0.0134347275031686</v>
       </c>
       <c r="F15" t="n">
-        <v>1.20445965009235</v>
+        <v>1.22284834704032</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
         <v>9</v>
@@ -891,16 +891,16 @@
         <v>2126.75438596491</v>
       </c>
       <c r="E16" t="n">
-        <v>0.187749287749288</v>
+        <v>0.19156976744186</v>
       </c>
       <c r="F16" t="n">
-        <v>4.75284541709586</v>
+        <v>4.78023933880823</v>
       </c>
       <c r="G16" t="n">
         <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>9</v>
@@ -923,16 +923,16 @@
         <v>1385.62091503268</v>
       </c>
       <c r="E17" t="n">
-        <v>4.2484037050403</v>
+        <v>4.43903720462544</v>
       </c>
       <c r="F17" t="n">
-        <v>25.2876374348006</v>
+        <v>26.2602388746006</v>
       </c>
       <c r="G17" t="n">
         <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I17" t="n">
         <v>9</v>
